--- a/static/template_uk.xlsx
+++ b/static/template_uk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NHolmes\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cbre-my.sharepoint.com/personal/timo_baaij_cbre_com/Documents/Desktop/Python Powerpoint Project/V2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88BF4E49-BC85-4E75-AF78-18154C6D6D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{88BF4E49-BC85-4E75-AF78-18154C6D6D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EB54FFF-1BD7-47EA-B9D1-AE33EFFB4002}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13635" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Floor load</t>
   </si>
@@ -75,42 +75,6 @@
     <t>BREAAM</t>
   </si>
   <si>
-    <t>Unit 1</t>
-  </si>
-  <si>
-    <t>Unit 2</t>
-  </si>
-  <si>
-    <t>Unit 3</t>
-  </si>
-  <si>
-    <t>Warehouse Size</t>
-  </si>
-  <si>
-    <t>Mezzaine Size</t>
-  </si>
-  <si>
-    <t>Office Size</t>
-  </si>
-  <si>
-    <t>Unit 4</t>
-  </si>
-  <si>
-    <t>Warehouse price</t>
-  </si>
-  <si>
-    <t>Office price</t>
-  </si>
-  <si>
-    <t>Mezzanine price</t>
-  </si>
-  <si>
-    <t>Truck parking price</t>
-  </si>
-  <si>
-    <t>Car parking price</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -142,6 +106,27 @@
   </si>
   <si>
     <t>https://goo.gl/maps/EMJsJn14xg9asFFn7</t>
+  </si>
+  <si>
+    <t>Rental Price</t>
+  </si>
+  <si>
+    <t>Owner/Developer</t>
+  </si>
+  <si>
+    <t>Planning Status</t>
+  </si>
+  <si>
+    <t>Description / Comments</t>
+  </si>
+  <si>
+    <t>Once upon a time, there was a curious cat named Whiskers. One day, while exploring the woods, she stumbled upon a magical tree that granted wishes. Excitedly, she wished for a never-ending supply of tuna. To her surprise, the tree granted her wish, but with an unexpected twist. From that day forward, Whiskers turned into a tuna fish herself!</t>
+  </si>
+  <si>
+    <t>Panattoni</t>
+  </si>
+  <si>
+    <t>Environmental permit in place</t>
   </si>
 </sst>
 </file>
@@ -149,11 +134,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="&quot;€&quot;\ 0\ &quot;per sq. m. per annum&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0\ &quot;sq. m.&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;€&quot;\ 0\ &quot;per sq. m. per annum&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="\£\ 0\ &quot;per sq. ft. per annum&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -212,16 +197,15 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -233,32 +217,32 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -542,404 +526,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="29" width="15.1796875" style="2"/>
-    <col min="30" max="30" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9" style="2" customWidth="1"/>
-    <col min="36" max="36" width="9.453125" style="2" customWidth="1"/>
-    <col min="37" max="16384" width="15.1796875" style="2"/>
+    <col min="5" max="5" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="17" width="15.140625" style="2"/>
+    <col min="18" max="21" width="29.140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="9" style="2" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" style="2" customWidth="1"/>
+    <col min="24" max="16384" width="15.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="13" t="s">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11">
+        <v>11</v>
+      </c>
+      <c r="M1" s="11">
+        <v>12</v>
+      </c>
+      <c r="N1" s="11">
+        <v>13</v>
+      </c>
+      <c r="O1" s="11">
+        <v>14</v>
+      </c>
+      <c r="P1" s="11">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="11">
         <v>16</v>
       </c>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13" t="s">
+      <c r="R1" s="11">
         <v>17</v>
       </c>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13" t="s">
+      <c r="S1" s="11">
         <v>18</v>
       </c>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13" t="s">
+      <c r="T1" s="11">
+        <v>19</v>
+      </c>
+      <c r="U1" s="11">
+        <v>20</v>
+      </c>
+      <c r="V1" s="11">
+        <v>21</v>
+      </c>
+      <c r="W1" s="11">
         <v>22</v>
       </c>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
+      <c r="X1" s="11">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="V2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="6">
+        <v>41915</v>
+      </c>
+      <c r="H3" s="6">
+        <v>6565</v>
+      </c>
+      <c r="I3" s="6">
+        <v>5447</v>
+      </c>
+      <c r="J3" s="7">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7">
+        <v>50</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="4">
+        <v>3</v>
+      </c>
+      <c r="N3" s="4">
+        <v>2</v>
+      </c>
+      <c r="O3" s="4">
         <v>0</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="P3" s="4">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="12">
+        <v>25</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="9">
         <v>1</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG2" s="4" t="s">
+      <c r="W3" s="9">
+        <v>2</v>
+      </c>
+      <c r="X3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="7">
-        <v>100000</v>
-      </c>
-      <c r="G3" s="7">
-        <v>41915</v>
-      </c>
-      <c r="H3" s="7">
-        <v>6565</v>
-      </c>
-      <c r="I3" s="7">
-        <v>5447</v>
-      </c>
-      <c r="J3" s="8">
-        <v>12</v>
-      </c>
-      <c r="K3" s="8">
-        <v>50</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="5">
-        <v>3</v>
-      </c>
-      <c r="N3" s="5">
-        <v>2</v>
-      </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="10">
-        <v>25</v>
-      </c>
-      <c r="AE3" s="10">
-        <v>25</v>
-      </c>
-      <c r="AF3" s="10">
-        <v>25</v>
-      </c>
-      <c r="AG3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="11">
-        <v>2</v>
-      </c>
-      <c r="AK3" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="12"/>
+      <c r="X4" s="10"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="12"/>
+      <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="12"/>
+      <c r="X6" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vP+2fcPX7QyiB3hn5SjQ5ZHBVC80Chvohd4h+1xk+i4Gmgpq4jtRiZi6A7GF7JBfHqeEsIXmjTN8I/cTzhua3Q==" saltValue="Aq6PCS+ab+b5IztJqnIOwg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="4">
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/static/template_uk.xlsx
+++ b/static/template_uk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cbre-my.sharepoint.com/personal/timo_baaij_cbre_com/Documents/Desktop/Python Powerpoint Project/V2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbaaij\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{88BF4E49-BC85-4E75-AF78-18154C6D6D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EB54FFF-1BD7-47EA-B9D1-AE33EFFB4002}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7455FE-F868-4044-B0A9-5920EC28521A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13635" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,14 +200,11 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -528,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AD25" sqref="AD25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,306 +544,259 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11">
-        <v>3</v>
-      </c>
-      <c r="E1" s="11">
-        <v>4</v>
-      </c>
-      <c r="F1" s="11">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11">
-        <v>6</v>
-      </c>
-      <c r="H1" s="11">
-        <v>7</v>
-      </c>
-      <c r="I1" s="11">
-        <v>8</v>
-      </c>
-      <c r="J1" s="11">
-        <v>9</v>
-      </c>
-      <c r="K1" s="11">
-        <v>10</v>
-      </c>
-      <c r="L1" s="11">
-        <v>11</v>
-      </c>
-      <c r="M1" s="11">
-        <v>12</v>
-      </c>
-      <c r="N1" s="11">
-        <v>13</v>
-      </c>
-      <c r="O1" s="11">
-        <v>14</v>
-      </c>
-      <c r="P1" s="11">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="11">
-        <v>16</v>
-      </c>
-      <c r="R1" s="11">
-        <v>17</v>
-      </c>
-      <c r="S1" s="11">
-        <v>18</v>
-      </c>
-      <c r="T1" s="11">
-        <v>19</v>
-      </c>
-      <c r="U1" s="11">
-        <v>20</v>
-      </c>
-      <c r="V1" s="11">
-        <v>21</v>
-      </c>
-      <c r="W1" s="11">
-        <v>22</v>
-      </c>
-      <c r="X1" s="11">
-        <v>23</v>
-      </c>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>100000</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>41915</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>6565</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>5447</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>12</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>50</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>3</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>2</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>0</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>26</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="11">
         <v>25</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="8">
         <v>1</v>
       </c>
-      <c r="W3" s="9">
+      <c r="W3" s="8">
         <v>2</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="X3" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="10"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="9"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="10"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="9"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="10"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="9"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="ft/EPT6CdC6LSNCBaf+Xw+2YszoHbeUaWW+OwBlha/419QP4ZUzT/Am2nH3ie01ycUhVGBsaTKWZgcInfGawcA==" saltValue="KZ6b83tkxpxvkNXALAmfDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/static/template_uk.xlsx
+++ b/static/template_uk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbaaij\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cbre-my.sharepoint.com/personal/timo_baaij_cbre_com/Documents/Desktop/Python Powerpoint Project/V2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7455FE-F868-4044-B0A9-5920EC28521A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{4C7455FE-F868-4044-B0A9-5920EC28521A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A47CDF2F-F786-4F21-BD8D-ACF4B2934149}"/>
   <bookViews>
-    <workbookView xWindow="13635" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>Floor load</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Environmental permit in place</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,7 @@
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="\£\ 0\ &quot;per sq. ft. per annum&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +170,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -200,7 +211,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -240,6 +251,9 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -526,7 +540,7 @@
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,30 +558,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
+      <c r="A1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -796,7 +858,7 @@
       <c r="X6" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ft/EPT6CdC6LSNCBaf+Xw+2YszoHbeUaWW+OwBlha/419QP4ZUzT/Am2nH3ie01ycUhVGBsaTKWZgcInfGawcA==" saltValue="KZ6b83tkxpxvkNXALAmfDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="x17ZUzEbJbf8tI6AgJy0f2J6bqA7rd8YVgD5qqzQGiDMd75jC5EzQWFdIWoaB8sk9GWzsdpBa7/WSb+AZ68+AQ==" saltValue="VPkVMqFZeFMkAiNj/WUnnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
